--- a/pred_ohlcv/54_21/2020-01-14 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ARN ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-25411.09330967</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-26839.57280967</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-26836.57280967</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-26885.84930967</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-63400.07708201005</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-62810.92818201005</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-61561.70078201005</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-61723.18588201005</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-61120.18588201005</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-60861.85220004005</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-64041.00660004005</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-64031.00660004005</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-64181.46900004004</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-55456.24370004004</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-81627.16135632005</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-79288.46075632006</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-78308.32475632006</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-82877.51145861007</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-82763.24032298007</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-83687.87715696006</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-82525.28665696006</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-74855.37435951007</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-73599.72305951007</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-73677.92305951007</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-72674.61315951007</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-72704.61315951007</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-63889.21595951009</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-54418.05515951009</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-39894.39430209009</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-41068.59770209009</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>17827.12579790991</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>28016.75564303991</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>24436.33721158991</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>33872.44491158991</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>14558.92331158991</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-12222.62631791009</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-13942.31457398009</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-9937.771373980089</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-9934.771373980089</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-11143.38666693009</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-12445.58026693009</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1526.486666930088</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6147.022933069911</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>984.0229330699112</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-4242.039666930089</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ARN ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-25411.09330967</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-26839.57280967</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-26836.57280967</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-26885.84930967</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-63400.07708201005</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-62810.92818201005</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-61561.70078201005</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-61723.18588201005</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-61120.18588201005</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-60861.85220004005</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-64041.00660004005</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-64031.00660004005</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-64181.46900004004</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-55456.24370004004</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-81627.16135632005</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-79288.46075632006</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-78308.32475632006</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-82877.51145861007</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-82763.24032298007</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-83687.87715696006</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-82525.28665696006</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-74855.37435951007</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-73599.72305951007</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-73677.92305951007</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-72674.61315951007</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-72704.61315951007</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-63889.21595951009</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-54418.05515951009</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-39894.39430209009</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-41068.59770209009</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>17827.12579790991</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>28016.75564303991</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>447.7795430399128</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-1252.683356960087</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>376.1899115899128</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1967.766388410087</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>973.347411589913</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>14558.92331158991</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1279.223688270089</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-12851.36608827009</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-14205.70168827009</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-13942.31457398009</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-11143.38666693009</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-12445.58026693009</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-12433.58026693009</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-15495.00556693009</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-14442.10856693009</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>6162.022933069911</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6147.022933069911</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>984.0229330699112</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>6318.23653306991</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
